--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Reln-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Reln-Lrp8.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H2">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I2">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J2">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N2">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O2">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P2">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q2">
-        <v>0.007654627225555556</v>
+        <v>0.4135525462995556</v>
       </c>
       <c r="R2">
-        <v>0.06889164502999999</v>
+        <v>3.721972916696</v>
       </c>
       <c r="S2">
-        <v>0.0001296164509326223</v>
+        <v>0.005203534990523007</v>
       </c>
       <c r="T2">
-        <v>0.0001296164509326223</v>
+        <v>0.005203534990523007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H3">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I3">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J3">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.531156</v>
       </c>
       <c r="O3">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P3">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q3">
-        <v>0.1984552266377778</v>
+        <v>0.8958909754408889</v>
       </c>
       <c r="R3">
-        <v>1.78609703974</v>
+        <v>8.063018778967999</v>
       </c>
       <c r="S3">
-        <v>0.003360459155991237</v>
+        <v>0.01127257002795406</v>
       </c>
       <c r="T3">
-        <v>0.003360459155991236</v>
+        <v>0.01127257002795406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H4">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I4">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J4">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N4">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O4">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P4">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q4">
-        <v>0.07917314334944443</v>
+        <v>0.6779177574759999</v>
       </c>
       <c r="R4">
-        <v>0.7125582901449999</v>
+        <v>6.101259817283998</v>
       </c>
       <c r="S4">
-        <v>0.001340645539977936</v>
+        <v>0.008529916701729289</v>
       </c>
       <c r="T4">
-        <v>0.001340645539977936</v>
+        <v>0.008529916701729291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H5">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I5">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J5">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N5">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O5">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P5">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q5">
-        <v>0.01845123499555556</v>
+        <v>0.4271333703088889</v>
       </c>
       <c r="R5">
-        <v>0.16606111496</v>
+        <v>3.84420033278</v>
       </c>
       <c r="S5">
-        <v>0.0003124363244578686</v>
+        <v>0.005374416039533675</v>
       </c>
       <c r="T5">
-        <v>0.0003124363244578685</v>
+        <v>0.005374416039533675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H6">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I6">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J6">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N6">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O6">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P6">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q6">
-        <v>0.2075115082372223</v>
+        <v>1.035925289688444</v>
       </c>
       <c r="R6">
-        <v>1.867603574135</v>
+        <v>9.323327607195999</v>
       </c>
       <c r="S6">
-        <v>0.003513809939115911</v>
+        <v>0.01303455519907966</v>
       </c>
       <c r="T6">
-        <v>0.003513809939115911</v>
+        <v>0.01303455519907966</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H7">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I7">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J7">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N7">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O7">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P7">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q7">
-        <v>0.06200747633888889</v>
+        <v>0.4261040099657777</v>
       </c>
       <c r="R7">
-        <v>0.55806728705</v>
+        <v>3.834936089692</v>
       </c>
       <c r="S7">
-        <v>0.001049977847059954</v>
+        <v>0.005361464087934867</v>
       </c>
       <c r="T7">
-        <v>0.001049977847059954</v>
+        <v>0.005361464087934868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>0.291019</v>
       </c>
       <c r="I8">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J8">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N8">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O8">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P8">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q8">
-        <v>0.01812343457311111</v>
+        <v>0.2168974954342223</v>
       </c>
       <c r="R8">
-        <v>0.163110911158</v>
+        <v>1.952077458908</v>
       </c>
       <c r="S8">
-        <v>0.0003068856521495408</v>
+        <v>0.00272911802127137</v>
       </c>
       <c r="T8">
-        <v>0.0003068856521495408</v>
+        <v>0.00272911802127137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.291019</v>
       </c>
       <c r="I9">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J9">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.531156</v>
       </c>
       <c r="O9">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P9">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q9">
         <v>0.4698713875515556</v>
@@ -1013,10 +1013,10 @@
         <v>4.228842487964</v>
       </c>
       <c r="S9">
-        <v>0.007956371989727972</v>
+        <v>0.0059121681828531</v>
       </c>
       <c r="T9">
-        <v>0.007956371989727972</v>
+        <v>0.0059121681828531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.291019</v>
       </c>
       <c r="I10">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J10">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N10">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O10">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P10">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q10">
-        <v>0.1874538421218889</v>
+        <v>0.355550135098</v>
       </c>
       <c r="R10">
-        <v>1.687084579097</v>
+        <v>3.199951215882</v>
       </c>
       <c r="S10">
-        <v>0.003174171780489273</v>
+        <v>0.004473718238280408</v>
       </c>
       <c r="T10">
-        <v>0.003174171780489272</v>
+        <v>0.004473718238280409</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.291019</v>
       </c>
       <c r="I11">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J11">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N11">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O11">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P11">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q11">
-        <v>0.04368596149511111</v>
+        <v>0.2240202824655556</v>
       </c>
       <c r="R11">
-        <v>0.393173653456</v>
+        <v>2.01618254219</v>
       </c>
       <c r="S11">
-        <v>0.0007397380849156284</v>
+        <v>0.002818740662648457</v>
       </c>
       <c r="T11">
-        <v>0.0007397380849156283</v>
+        <v>0.002818740662648457</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.291019</v>
       </c>
       <c r="I12">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J12">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N12">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O12">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P12">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q12">
-        <v>0.4913134411234445</v>
+        <v>0.5433157232397777</v>
       </c>
       <c r="R12">
-        <v>4.421820970111001</v>
+        <v>4.889841509158</v>
       </c>
       <c r="S12">
-        <v>0.008319452098373457</v>
+        <v>0.006836283326210379</v>
       </c>
       <c r="T12">
-        <v>0.008319452098373455</v>
+        <v>0.006836283326210379</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.291019</v>
       </c>
       <c r="I13">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J13">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N13">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O13">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P13">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q13">
-        <v>0.1468116483477778</v>
+        <v>0.2234804098851111</v>
       </c>
       <c r="R13">
-        <v>1.32130483513</v>
+        <v>2.011323688966</v>
       </c>
       <c r="S13">
-        <v>0.002485974072111139</v>
+        <v>0.002811947702750365</v>
       </c>
       <c r="T13">
-        <v>0.002485974072111139</v>
+        <v>0.002811947702750366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,40 +1293,40 @@
         <v>0.000221</v>
       </c>
       <c r="I14">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J14">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N14">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O14">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P14">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q14">
-        <v>1.376294688888889E-05</v>
+        <v>0.0001647120857777778</v>
       </c>
       <c r="R14">
-        <v>0.000123866522</v>
+        <v>0.001482408772</v>
       </c>
       <c r="S14">
-        <v>2.330491449872637E-07</v>
+        <v>2.072493832708423E-06</v>
       </c>
       <c r="T14">
-        <v>2.330491449872637E-07</v>
+        <v>2.072493832708423E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>0.000221</v>
       </c>
       <c r="I15">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J15">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>14.531156</v>
       </c>
       <c r="O15">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P15">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q15">
         <v>0.0003568206084444444</v>
@@ -1385,10 +1385,10 @@
         <v>0.003211385476</v>
       </c>
       <c r="S15">
-        <v>6.042073575023905E-06</v>
+        <v>4.489704000118669E-06</v>
       </c>
       <c r="T15">
-        <v>6.042073575023905E-06</v>
+        <v>4.48970400011867E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>0.000221</v>
       </c>
       <c r="I16">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J16">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N16">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O16">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P16">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q16">
-        <v>0.0001423525581111111</v>
+        <v>0.0002700049819999999</v>
       </c>
       <c r="R16">
-        <v>0.001281173023</v>
+        <v>0.002430044838</v>
       </c>
       <c r="S16">
-        <v>2.410467919579578E-06</v>
+        <v>3.397344265013522E-06</v>
       </c>
       <c r="T16">
-        <v>2.410467919579578E-06</v>
+        <v>3.397344265013523E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>0.000221</v>
       </c>
       <c r="I17">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J17">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N17">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O17">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P17">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q17">
-        <v>3.317514488888888E-05</v>
+        <v>0.0001701211344444444</v>
       </c>
       <c r="R17">
-        <v>0.000298576304</v>
+        <v>0.00153109021</v>
       </c>
       <c r="S17">
-        <v>5.617575373647558E-07</v>
+        <v>2.140553319354781E-06</v>
       </c>
       <c r="T17">
-        <v>5.617575373647558E-07</v>
+        <v>2.140553319354781E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>0.000221</v>
       </c>
       <c r="I18">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J18">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N18">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O18">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P18">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q18">
-        <v>0.0003731037165555556</v>
+        <v>0.0004125942802222221</v>
       </c>
       <c r="R18">
-        <v>0.003357933449</v>
+        <v>0.003713348522</v>
       </c>
       <c r="S18">
-        <v>6.317796823370755E-06</v>
+        <v>5.191477584255645E-06</v>
       </c>
       <c r="T18">
-        <v>6.317796823370755E-06</v>
+        <v>5.191477584255646E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>0.000221</v>
       </c>
       <c r="I19">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J19">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N19">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O19">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P19">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q19">
-        <v>0.0001114888522222222</v>
+        <v>0.0001697111548888889</v>
       </c>
       <c r="R19">
-        <v>0.00100339967</v>
+        <v>0.001527400394</v>
       </c>
       <c r="S19">
-        <v>1.887850174512873E-06</v>
+        <v>2.135394741607354E-06</v>
       </c>
       <c r="T19">
-        <v>1.887850174512873E-06</v>
+        <v>2.135394741607355E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H20">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I20">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J20">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N20">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O20">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P20">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q20">
-        <v>0.7569148738493333</v>
+        <v>7.765923677124001</v>
       </c>
       <c r="R20">
-        <v>6.812233864643999</v>
+        <v>69.89331309411601</v>
       </c>
       <c r="S20">
-        <v>0.01281690364736783</v>
+        <v>0.0977149238935523</v>
       </c>
       <c r="T20">
-        <v>0.01281690364736783</v>
+        <v>0.09771492389355228</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H21">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I21">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J21">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.531156</v>
       </c>
       <c r="O21">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P21">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q21">
-        <v>19.62390961819467</v>
+        <v>16.823547577092</v>
       </c>
       <c r="R21">
-        <v>176.615186563752</v>
+        <v>151.411928193828</v>
       </c>
       <c r="S21">
-        <v>0.3322933231341434</v>
+        <v>0.2116826973148802</v>
       </c>
       <c r="T21">
-        <v>0.3322933231341433</v>
+        <v>0.2116826973148802</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H22">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I22">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J22">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N22">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O22">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P22">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q22">
-        <v>7.828902446160666</v>
+        <v>12.730323174246</v>
       </c>
       <c r="R22">
-        <v>70.46012201544599</v>
+        <v>114.572908568214</v>
       </c>
       <c r="S22">
-        <v>0.1325674679991254</v>
+        <v>0.1601796015296984</v>
       </c>
       <c r="T22">
-        <v>0.1325674679991254</v>
+        <v>0.1601796015296984</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H23">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I23">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J23">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N23">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O23">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P23">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q23">
-        <v>1.824519182645333</v>
+        <v>8.020952073570001</v>
       </c>
       <c r="R23">
-        <v>16.420672643808</v>
+        <v>72.18856866213001</v>
       </c>
       <c r="S23">
-        <v>0.03089473780296509</v>
+        <v>0.10092382490591</v>
       </c>
       <c r="T23">
-        <v>0.03089473780296508</v>
+        <v>0.10092382490591</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H24">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I24">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J24">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N24">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O24">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P24">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q24">
-        <v>20.51942471545534</v>
+        <v>19.453191152874</v>
       </c>
       <c r="R24">
-        <v>184.674822439098</v>
+        <v>175.078720375866</v>
       </c>
       <c r="S24">
-        <v>0.3474571560999068</v>
+        <v>0.2447702516816089</v>
       </c>
       <c r="T24">
-        <v>0.3474571560999068</v>
+        <v>0.2447702516816089</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H25">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I25">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J25">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N25">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O25">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P25">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q25">
-        <v>6.131504480593333</v>
+        <v>8.001622162698</v>
       </c>
       <c r="R25">
-        <v>55.18354032534</v>
+        <v>72.01459946428201</v>
       </c>
       <c r="S25">
-        <v>0.1038252845283787</v>
+        <v>0.1006806058313663</v>
       </c>
       <c r="T25">
-        <v>0.1038252845283787</v>
+        <v>0.1006806058313663</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H26">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I26">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J26">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N26">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O26">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P26">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q26">
-        <v>0.003761643805111111</v>
+        <v>0.04529805949955556</v>
       </c>
       <c r="R26">
-        <v>0.033854794246</v>
+        <v>0.407682535496</v>
       </c>
       <c r="S26">
-        <v>6.369623305278594E-05</v>
+        <v>0.0005699639373952604</v>
       </c>
       <c r="T26">
-        <v>6.369623305278594E-05</v>
+        <v>0.0005699639373952604</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H27">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I27">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J27">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.531156</v>
       </c>
       <c r="O27">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P27">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q27">
-        <v>0.09752504620755556</v>
+        <v>0.09813051104088889</v>
       </c>
       <c r="R27">
-        <v>0.877725415868</v>
+        <v>0.8831745993679999</v>
       </c>
       <c r="S27">
-        <v>0.001651399864941941</v>
+        <v>0.00123472954624078</v>
       </c>
       <c r="T27">
-        <v>0.001651399864941941</v>
+        <v>0.00123472954624078</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H28">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I28">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J28">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N28">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O28">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P28">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q28">
-        <v>0.03890733740988889</v>
+        <v>0.07425503527599998</v>
       </c>
       <c r="R28">
-        <v>0.350166036689</v>
+        <v>0.6682953174839998</v>
       </c>
       <c r="S28">
-        <v>0.0006588212386713359</v>
+        <v>0.0009343157906741712</v>
       </c>
       <c r="T28">
-        <v>0.0006588212386713359</v>
+        <v>0.0009343157906741714</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H29">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I29">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J29">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N29">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O29">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P29">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q29">
-        <v>0.009067322519111111</v>
+        <v>0.04678562130888889</v>
       </c>
       <c r="R29">
-        <v>0.08160590267200001</v>
+        <v>0.42107059178</v>
       </c>
       <c r="S29">
-        <v>0.0001535377399522323</v>
+        <v>0.0005886812201074429</v>
       </c>
       <c r="T29">
-        <v>0.0001535377399522323</v>
+        <v>0.0005886812201074429</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H30">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I30">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J30">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N30">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O30">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P30">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q30">
-        <v>0.1019754922674444</v>
+        <v>0.1134690278884444</v>
       </c>
       <c r="R30">
-        <v>0.9177794304070001</v>
+        <v>1.021221250996</v>
       </c>
       <c r="S30">
-        <v>0.001726759644896216</v>
+        <v>0.001427726808216695</v>
       </c>
       <c r="T30">
-        <v>0.001726759644896216</v>
+        <v>0.001427726808216695</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H31">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I31">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J31">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N31">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O31">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P31">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q31">
-        <v>0.03047176986777778</v>
+        <v>0.04667287136577777</v>
       </c>
       <c r="R31">
-        <v>0.27424592881</v>
+        <v>0.420055842292</v>
       </c>
       <c r="S31">
-        <v>0.0005159810592357514</v>
+        <v>0.0005872625412009583</v>
       </c>
       <c r="T31">
-        <v>0.0005159810592357515</v>
+        <v>0.0005872625412009584</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H32">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I32">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J32">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N32">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O32">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P32">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q32">
-        <v>0.002103862600666666</v>
+        <v>0.03669129404</v>
       </c>
       <c r="R32">
-        <v>0.018934763406</v>
+        <v>0.33022164636</v>
       </c>
       <c r="S32">
-        <v>3.56248835525101E-05</v>
+        <v>0.0004616691012861343</v>
       </c>
       <c r="T32">
-        <v>3.562488355251009E-05</v>
+        <v>0.0004616691012861343</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H33">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I33">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J33">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.531156</v>
       </c>
       <c r="O33">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P33">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q33">
-        <v>0.05454511590533333</v>
+        <v>0.07948542332000001</v>
       </c>
       <c r="R33">
-        <v>0.490906043148</v>
+        <v>0.71536880988</v>
       </c>
       <c r="S33">
-        <v>0.0009236170659956224</v>
+        <v>0.001000127275682543</v>
       </c>
       <c r="T33">
-        <v>0.0009236170659956223</v>
+        <v>0.001000127275682543</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H34">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I34">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J34">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N34">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O34">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P34">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q34">
-        <v>0.02176061751433333</v>
+        <v>0.06014635865999999</v>
       </c>
       <c r="R34">
-        <v>0.195845557629</v>
+        <v>0.5413172279399999</v>
       </c>
       <c r="S34">
-        <v>0.0003684743788559135</v>
+        <v>0.0007567930233783515</v>
       </c>
       <c r="T34">
-        <v>0.0003684743788559134</v>
+        <v>0.0007567930233783517</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H35">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I35">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J35">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N35">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O35">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P35">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q35">
-        <v>0.005071293754666666</v>
+        <v>0.03789621470000001</v>
       </c>
       <c r="R35">
-        <v>0.045641643792</v>
+        <v>0.3410659323</v>
       </c>
       <c r="S35">
-        <v>8.587264653752735E-05</v>
+        <v>0.000476830044849936</v>
       </c>
       <c r="T35">
-        <v>8.587264653752734E-05</v>
+        <v>0.0004768300448499361</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H36">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I36">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J36">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N36">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O36">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P36">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q36">
-        <v>0.05703422106966667</v>
+        <v>0.09190957653999998</v>
       </c>
       <c r="R36">
-        <v>0.513307989627</v>
+        <v>0.8271861888599999</v>
       </c>
       <c r="S36">
-        <v>0.0009657652944974398</v>
+        <v>0.001156454486302739</v>
       </c>
       <c r="T36">
-        <v>0.0009657652944974397</v>
+        <v>0.00115645448630274</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H37">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I37">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J37">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N37">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O37">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P37">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q37">
-        <v>0.01704266015666666</v>
+        <v>0.03780488758</v>
       </c>
       <c r="R37">
-        <v>0.15338394141</v>
+        <v>0.34024398822</v>
       </c>
       <c r="S37">
-        <v>0.0002885848074460108</v>
+        <v>0.00047568091913724</v>
       </c>
       <c r="T37">
-        <v>0.0002885848074460108</v>
+        <v>0.0004756809191372402</v>
       </c>
     </row>
   </sheetData>
